--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-835278.0061016087</v>
+        <v>-803704.579093121</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306644</v>
+        <v>16774535.54843888</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9706783.390662884</v>
+        <v>9738999.377156729</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>217.1530366922929</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.46142978139768</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>23.925937787683</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.2936092123756</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>322.96392688766</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>411.6213736860524</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>42.59920215195948</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>151.5162869994147</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,7 +1111,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>240.741791987177</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>56.99599303280912</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>44.63990070892665</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>75.27163543904663</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>253.6337674693387</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>75.74046452697245</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>41.94061297377392</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>240.9739924675005</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791311417</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430777</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>54.18430635300761</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>24.62703520776678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>148.8597651552992</v>
+        <v>195.6769533899538</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.38971918733542</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2564,7 +2564,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170514</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>136.0564930767001</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>240.4911776300924</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225626</v>
+        <v>85.5532963163069</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413114</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496636</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385526</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724686</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925405</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.394369317406</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043297</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.7153284477351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245958</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>174.7843174058455</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>155.7199792756556</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>149.1030977445408</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>152.9443085858184</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>159.8238683719096</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>148.8192470984789</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>123.3870374405775</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432292</v>
+        <v>72.65723460711965</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934529</v>
+        <v>6.087527955730076</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>142.5328398890315</v>
       </c>
       <c r="T37" t="n">
-        <v>227.184941618582</v>
+        <v>228.3045368313775</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006784</v>
+        <v>260.532555613474</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>268.9698379223221</v>
       </c>
       <c r="W37" t="n">
-        <v>253.0704300308241</v>
+        <v>227.4979796944022</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>227.8217219939699</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>210.029358853081</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
         <v>413.2012870545404</v>
@@ -3518,7 +3518,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925405</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U38" t="n">
-        <v>240.394369317406</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
         <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477351</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628597</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432264</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934529</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
-        <v>227.184941618582</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
         <v>267.8502427095265</v>
       </c>
       <c r="W40" t="n">
-        <v>253.0704300308241</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X40" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E41" t="n">
         <v>413.2012870545404</v>
@@ -3755,7 +3755,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925405</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U41" t="n">
-        <v>240.394369317406</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V41" t="n">
         <v>342.7550702267644</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X41" t="n">
-        <v>398.7153284477351</v>
+        <v>398.7153284477345</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.5376393943241</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742932693</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
-        <v>227.184941618582</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V43" t="n">
         <v>267.8502427095265</v>
       </c>
       <c r="W43" t="n">
-        <v>253.0704300308241</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X43" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4150,10 +4150,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.8743158913576</v>
+        <v>1601.759173608573</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>1567.6571048324</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>1535.787724047249</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>1102.012979205544</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>674.1455496147514</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>272.7477182380153</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X2" t="n">
-        <v>613.9632093877782</v>
+        <v>2032.304463753423</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.1334823358613</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9019468393491</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C4" t="n">
-        <v>464.9019468393491</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>592.4712490740719</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y4" t="n">
-        <v>464.9019468393491</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.680625966315</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901424</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
-        <v>383.9968829274108</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108188</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.97316572479974</v>
+        <v>968.896903337504</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>796.3351918207289</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>630.4571990222516</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>460.6991952729889</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.629614209975</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>741.6032097962661</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>496.2114551296786</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.7917844437869</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>452.0266090983449</v>
+        <v>1601.759173608573</v>
       </c>
       <c r="C8" t="n">
-        <v>417.9245403221723</v>
+        <v>1567.6571048324</v>
       </c>
       <c r="D8" t="n">
-        <v>386.0551595370209</v>
+        <v>1131.747320006844</v>
       </c>
       <c r="E8" t="n">
-        <v>356.3208187357201</v>
+        <v>697.9725751651395</v>
       </c>
       <c r="F8" t="n">
-        <v>332.4937931853319</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>332.4937931853319</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36363862854812</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854812</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.618326081466</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1015.243354109749</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1015.243354109749</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1015.243354109749</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1015.243354109749</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.402838646066</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1462.402838646066</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1999.027866674349</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427406</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.181931427406</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.181931427406</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.181931427406</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2110.610221293256</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1705.754766704289</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X8" t="n">
-        <v>1286.612303283599</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y8" t="n">
-        <v>878.3261795832527</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198409</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564832</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030365</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299902</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461518</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233565</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854812</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.42731178900573</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.985636755218</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>516.1805659564512</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>516.1805659564512</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>516.1805659564512</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>516.1805659564512</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>516.1805659564512</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984734</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886342</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.1924996815033</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203833</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.839284699604</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.0161589422188</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>88.45444742544373</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36363862854812</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36363862854812</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36363862854812</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36363862854812</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36363862854812</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854812</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36363862854812</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>81.05323612476442</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>499.2631178927255</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7469850736385</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1401.005788231283</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.675037457064</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.181931427406</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427406</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2168.181931427406</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2008.940562725403</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1763.061116303858</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.628115556963</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1197.672607427394</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>925.6462030136852</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>680.2544483470977</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.8347776612059</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1305.38483625449</v>
+        <v>2036.541445897021</v>
       </c>
       <c r="C11" t="n">
-        <v>1229.352881265554</v>
+        <v>1598.398973080445</v>
       </c>
       <c r="D11" t="n">
-        <v>793.4430964399987</v>
+        <v>1162.489188254889</v>
       </c>
       <c r="E11" t="n">
-        <v>359.6683515982939</v>
+        <v>728.7144434131842</v>
       </c>
       <c r="F11" t="n">
-        <v>359.6683515982939</v>
+        <v>728.7144434131842</v>
       </c>
       <c r="G11" t="n">
-        <v>359.6683515982939</v>
+        <v>327.3166120364481</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53819704151017</v>
+        <v>71.12088731994452</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151017</v>
+        <v>70.70409794708452</v>
       </c>
       <c r="J11" t="n">
-        <v>70.53819704151017</v>
+        <v>505.9587854000024</v>
       </c>
       <c r="K11" t="n">
-        <v>904.8884889996881</v>
+        <v>505.9587854000024</v>
       </c>
       <c r="L11" t="n">
-        <v>1777.798677388376</v>
+        <v>1380.921997495173</v>
       </c>
       <c r="M11" t="n">
-        <v>1777.798677388376</v>
+        <v>1380.921997495173</v>
       </c>
       <c r="N11" t="n">
-        <v>1777.798677388376</v>
+        <v>1380.921997495173</v>
       </c>
       <c r="O11" t="n">
-        <v>2650.708865777065</v>
+        <v>2160.396236562235</v>
       </c>
       <c r="P11" t="n">
-        <v>3479.018740610461</v>
+        <v>2988.706111395631</v>
       </c>
       <c r="Q11" t="n">
-        <v>3526.909852075509</v>
+        <v>3535.204897354226</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075509</v>
+        <v>3535.204897354226</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259346</v>
+        <v>3535.204897354226</v>
       </c>
       <c r="T11" t="n">
-        <v>3223.190751132384</v>
+        <v>3535.204897354226</v>
       </c>
       <c r="U11" t="n">
-        <v>2963.968448449401</v>
+        <v>3275.982594671243</v>
       </c>
       <c r="V11" t="n">
-        <v>2963.968448449401</v>
+        <v>3275.982594671243</v>
       </c>
       <c r="W11" t="n">
-        <v>2559.112993860434</v>
+        <v>2871.127140082276</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.970530439745</v>
+        <v>2871.127140082276</v>
       </c>
       <c r="Y11" t="n">
-        <v>1731.684406739398</v>
+        <v>2462.841016381929</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>576.8758429383773</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>470.4193817750196</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159985</v>
+        <v>375.3290929215729</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429522</v>
+        <v>281.2086782485266</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>197.8248398646882</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252977</v>
+        <v>112.4397501308721</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151017</v>
+        <v>70.70409794708452</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196777</v>
+        <v>96.76777110754212</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681801</v>
+        <v>421.3260960737545</v>
       </c>
       <c r="K12" t="n">
-        <v>796.8820139467812</v>
+        <v>421.3260960737545</v>
       </c>
       <c r="L12" t="n">
-        <v>796.8820139467812</v>
+        <v>421.3260960737545</v>
       </c>
       <c r="M12" t="n">
-        <v>796.8820139467812</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="N12" t="n">
-        <v>796.8820139467812</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="O12" t="n">
-        <v>796.8820139467812</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="P12" t="n">
-        <v>1616.605180425979</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1616.771081331554</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1733.943859425893</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1670.488421874276</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1540.309778204878</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1363.973231204846</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1164.855713266846</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>979.5329590000397</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>824.6655232389197</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>698.1797440181405</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>971.85065317811</v>
+        <v>1009.860084249341</v>
       </c>
       <c r="C13" t="n">
-        <v>799.2889416613349</v>
+        <v>837.2983727325654</v>
       </c>
       <c r="D13" t="n">
-        <v>633.4109488628576</v>
+        <v>671.420379934088</v>
       </c>
       <c r="E13" t="n">
-        <v>463.6529451135949</v>
+        <v>501.6623761848253</v>
       </c>
       <c r="F13" t="n">
-        <v>286.945891075351</v>
+        <v>324.9553221465815</v>
       </c>
       <c r="G13" t="n">
-        <v>210.4403713511356</v>
+        <v>159.3640471724092</v>
       </c>
       <c r="H13" t="n">
-        <v>70.53819704151017</v>
+        <v>159.3640471724092</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151017</v>
+        <v>70.70409794708452</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822062</v>
+        <v>157.2837831117744</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773357</v>
+        <v>432.04223768291</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452967</v>
+        <v>850.252119450871</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1309.735986631784</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1751.994789789429</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109636</v>
+        <v>2171.66403901521</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079978</v>
+        <v>2519.170932985552</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.363707849884</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.363707849884</v>
       </c>
       <c r="S13" t="n">
-        <v>2527.956438242307</v>
+        <v>2528.122339147881</v>
       </c>
       <c r="T13" t="n">
-        <v>2282.076991820762</v>
+        <v>2282.242892726336</v>
       </c>
       <c r="U13" t="n">
-        <v>2003.643991073867</v>
+        <v>2003.809891979441</v>
       </c>
       <c r="V13" t="n">
-        <v>1716.688482944298</v>
+        <v>1716.854383849872</v>
       </c>
       <c r="W13" t="n">
-        <v>1444.662078530589</v>
+        <v>1674.490128320807</v>
       </c>
       <c r="X13" t="n">
-        <v>1199.270323864002</v>
+        <v>1429.098373654219</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.85065317811</v>
+        <v>1201.678702968328</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5282,19 +5282,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>3603.973621145286</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N14" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
         <v>4943.887948785924</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D16" t="n">
-        <v>754.219347342084</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2316.271008272081</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771592</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.807784200423</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436393</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,37 +5522,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5595,22 +5595,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D19" t="n">
-        <v>639.1929661716164</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>469.4349624223541</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>292.7279083841103</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>127.136633409938</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>127.136633409938</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2093.658967439508</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3219.389950875955</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4199.569617446262</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5027.879492279658</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5926,34 +5926,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.0973401405612</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2668.021743923745</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2422.1422975022</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2143.709296755305</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1856.753788625736</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1584.727384212028</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1339.33562954544</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.915958859548</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,49 +6227,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856333</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6625,7 +6625,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2070.879253605493</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.923745475924</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1511.897341062215</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
         <v>2090.757574835212</v>
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423626</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993932</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827329</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903946</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736195</v>
+        <v>866.6126368575085</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751421</v>
+        <v>700.7346440590311</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258791</v>
+        <v>530.9766403097683</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0912842876352</v>
+        <v>354.2695862715245</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134627</v>
+        <v>188.6783112973521</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6856,19 +6856,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
         <v>2203.220781338905</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795273</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1230.992967093271</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835857</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197256</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581788</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581788</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>532.8213911287357</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>1607.881357381595</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2764.929192592146</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>3890.660176028593</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>4870.8398425989</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4878.335183790894</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790894</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790894</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673522</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403415</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750118</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574027</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581788</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>97.60290339162182</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>422.1612283578341</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397565</v>
+        <v>1074.437378779971</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936661</v>
+        <v>917.1444704207237</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080649</v>
+        <v>766.5352807797734</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716782</v>
+        <v>612.0460801880378</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463105</v>
+        <v>450.607829307321</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850142</v>
+        <v>300.2853574906757</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882648</v>
+        <v>175.6519863385773</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581788</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>203.8054794101617</v>
       </c>
       <c r="K37" t="n">
-        <v>491.051549882363</v>
+        <v>493.5288879559895</v>
       </c>
       <c r="L37" t="n">
-        <v>925.3347848856838</v>
+        <v>926.7037236986428</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1401.152544854248</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1858.376301986585</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2293.010505187059</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2655.482353132093</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2838.640081971117</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2832.491063834016</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2688.518498289539</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2457.907855025522</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947929</v>
+        <v>2194.743657436154</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1923.056952464112</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230403</v>
+        <v>1693.261013378857</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976692</v>
+        <v>1463.138061869796</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703676</v>
+        <v>1250.987194341431</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1774.960594197688</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1774.960594197688</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2900.691577634135</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3880.871244204441</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4709.181119037837</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>422.1250286420302</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1241.848195121229</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R39" t="n">
         <v>1760.806465154627</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936661</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080649</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716783</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463106</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850144</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
-        <v>169.826945488265</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758675</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,19 +7363,19 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230403</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7394,52 +7394,52 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K41" t="n">
-        <v>532.8213911287357</v>
+        <v>540.3167323207282</v>
       </c>
       <c r="L41" t="n">
-        <v>532.8213911287357</v>
+        <v>1615.376698573588</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239093</v>
+        <v>2772.424533784138</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>3898.155517220585</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
         <v>4364.592902403413</v>
@@ -7482,34 +7482,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>422.1250286420302</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>422.1250286420302</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
-        <v>1241.848195121229</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q42" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R42" t="n">
         <v>1760.806465154627</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936678</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080666</v>
+        <v>756.1866229080655</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716799</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850159</v>
+        <v>293.329412385015</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882665</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758675</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.051549882363</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7582,37 +7582,37 @@
         <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579746</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290619</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.47362528195</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231238</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
@@ -7631,67 +7631,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>540.31673232073</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1615.376698573589</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2772.42453378414</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="N44" t="n">
-        <v>3898.155517220587</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O44" t="n">
-        <v>4878.335183790893</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790893</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>400.344360043353</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1220.067526522551</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
         <v>905.6649082936674</v>
@@ -7792,7 +7792,7 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
         <v>293.3294123850158</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7828,7 +7828,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7843,13 +7843,13 @@
         <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,13 +8143,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>542.0454828568517</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>451.6762470063811</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568515</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>123.4292214153871</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>542.0454828568515</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568515</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>38.07030050122859</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188771</v>
+        <v>883.8012243385564</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188772</v>
+        <v>787.3477162293557</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.37486006570498</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>379.5169886652537</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8930,22 +8930,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>243.3352893400963</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.02274874679097</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9948,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10601,13 +10601,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>7.571051709085623</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949894473</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>411.9079910209839</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>447.2222511564752</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>702.6670879902599</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11075,13 +11075,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>305.8360165328638</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>358.4894126493643</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>32.60508554187723</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>88.19489769745816</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307971</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.446659489828818</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.558508960248673e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>113.8761173587625</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>63.14631452530463</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>120.4463752142722</v>
+        <v>73.62918697961759</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>107.2592358276479</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>35.15749310933333</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.446375214273</v>
+        <v>52.94985625022233</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>26.69204554921739</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>834881.7128123686</v>
+        <v>847353.214870036</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>834881.7128123686</v>
+        <v>847353.214870036</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>840919.5329947874</v>
+        <v>847353.214870036</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658117.6098786204</v>
+        <v>659160.2255249707</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857480.7421045785</v>
+        <v>857480.7421045788</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857480.7421045786</v>
+        <v>857480.7421045788</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857480.7421045785</v>
+        <v>857480.7421045788</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857480.7421045785</v>
+        <v>857480.7421045788</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869103.6019999472</v>
+        <v>870454.4320943912</v>
       </c>
     </row>
     <row r="14">
@@ -26314,37 +26314,37 @@
         <v>134036.8299726021</v>
       </c>
       <c r="C2" t="n">
-        <v>134036.8299726021</v>
+        <v>134036.829972602</v>
       </c>
       <c r="D2" t="n">
         <v>134036.8299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>101090.974115606</v>
+        <v>101251.1263889013</v>
       </c>
       <c r="F2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="G2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="H2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="I2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="J2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="K2" t="n">
         <v>131714.396034338</v>
       </c>
       <c r="L2" t="n">
-        <v>131714.3960343381</v>
+        <v>131714.396034338</v>
       </c>
       <c r="M2" t="n">
-        <v>134036.8299726022</v>
+        <v>133876.6776993067</v>
       </c>
       <c r="N2" t="n">
         <v>134036.8299726021</v>
@@ -26353,7 +26353,7 @@
         <v>134036.8299726021</v>
       </c>
       <c r="P2" t="n">
-        <v>134036.8299726021</v>
+        <v>134036.8299726022</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.5662728173</v>
+        <v>64578.24660199681</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238707</v>
+        <v>113022.8393879882</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.37042610269</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625515972</v>
+        <v>65992.23286332266</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769095</v>
+        <v>83137.89408675471</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>178918.221808275</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>52190.62636720404</v>
+        <v>52273.30879786154</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933268</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933281</v>
@@ -26439,25 +26439,25 @@
         <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>81349.24995213674</v>
+        <v>72974.65348533855</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213674</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.24995213673</v>
+        <v>81349.2499521368</v>
       </c>
       <c r="P4" t="n">
-        <v>81349.2499521368</v>
+        <v>81349.24995213677</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769658</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154772</v>
+        <v>53735.11443978423</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608974</v>
+        <v>78989.03528831615</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-267408.0850708458</v>
+        <v>-320512.0344258743</v>
       </c>
       <c r="C6" t="n">
-        <v>-125216.7844111359</v>
+        <v>-96812.33584182947</v>
       </c>
       <c r="D6" t="n">
-        <v>-148041.9233117233</v>
+        <v>-96812.33584182941</v>
       </c>
       <c r="E6" t="n">
-        <v>-106130.248275963</v>
+        <v>-69663.40048657825</v>
       </c>
       <c r="F6" t="n">
-        <v>-127621.5667846579</v>
+        <v>-127050.6045881581</v>
       </c>
       <c r="G6" t="n">
-        <v>-14004.54086078728</v>
+        <v>-14027.76520016988</v>
       </c>
       <c r="H6" t="n">
-        <v>-14004.54086078727</v>
+        <v>-14027.76520016988</v>
       </c>
       <c r="I6" t="n">
-        <v>-14004.5408607873</v>
+        <v>-14027.76520016988</v>
       </c>
       <c r="J6" t="n">
-        <v>-125019.0062057775</v>
+        <v>-188679.113917876</v>
       </c>
       <c r="K6" t="n">
-        <v>-14004.54086078724</v>
+        <v>-14027.76520016992</v>
       </c>
       <c r="L6" t="n">
-        <v>-43805.91128688992</v>
+        <v>-14027.76520016994</v>
       </c>
       <c r="M6" t="n">
-        <v>-105844.240960784</v>
+        <v>-84080.84546040357</v>
       </c>
       <c r="N6" t="n">
-        <v>-119949.6826833153</v>
+        <v>-105965.928792379</v>
       </c>
       <c r="O6" t="n">
-        <v>-22828.03470562432</v>
+        <v>-22828.03470562442</v>
       </c>
       <c r="P6" t="n">
-        <v>-22828.03470562442</v>
+        <v>-22828.0347056243</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.0454828568515</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188771</v>
+        <v>883.8012243385565</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947724</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.119595212795611</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367472</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620255</v>
+        <v>216.2860177306995</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658683</v>
+        <v>394.4592790461886</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367472</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250037</v>
+        <v>216.2860177306995</v>
       </c>
       <c r="N4" t="n">
-        <v>396.533040365868</v>
+        <v>335.7825716091661</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367472</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620255</v>
+        <v>216.2860177306995</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658683</v>
+        <v>394.4592790461886</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>69.08581631892304</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>367.7418326819454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>219.0118993322386</v>
       </c>
       <c r="Y4" t="n">
-        <v>98.8518647666572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>106.4730705056277</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>128.2368922496478</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>23.42369649844662</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>182.8469633077073</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>301.9947875327026</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>119.5793121615659</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874731</v>
+        <v>15.11611512595176</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874788</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874731</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34863,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>542.0454828568517</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>451.6762470063811</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568515</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>123.4292214153871</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>542.0454828568515</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568515</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>38.07030050122859</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188771</v>
+        <v>883.8012243385564</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,13 +35422,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188772</v>
+        <v>787.3477162293557</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.37486006570498</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>379.5169886652537</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,22 +35650,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>243.3352893400963</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35890,13 +35890,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.02274874679097</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36294,10 +36294,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36993,10 +36993,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908058</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37318,10 +37318,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>7.571051709085623</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949894473</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>102.5703425650324</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>292.6499076220483</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467887</v>
+        <v>437.5503391339932</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>479.2412334905106</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>461.8421789215524</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>439.0244476772459</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>366.1331797424587</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>185.0078069081055</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>411.9079910209839</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348442</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>447.2222511564752</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>702.6670879902599</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
         <v>480.3608287033061</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900414</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>305.8360165328638</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
